--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>7c6cae8d-c3d7-49ca-881d-5169a8ab3fff</t>
+    <t>59f7cc6f-fa77-4d84-a4fe-f19e040ad341</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>59f7cc6f-fa77-4d84-a4fe-f19e040ad341</t>
+    <t>eb2c3dea-af9a-4456-8f28-67d8c83f2791</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>eb2c3dea-af9a-4456-8f28-67d8c83f2791</t>
+    <t>16c85fc9-b81c-4753-8120-39f371008e84</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>16c85fc9-b81c-4753-8120-39f371008e84</t>
+    <t>8755a9ac-0b4a-4d2e-917b-8670a2e17e31</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>8755a9ac-0b4a-4d2e-917b-8670a2e17e31</t>
+    <t>b5e67c91-941c-429a-ad5a-e3d3817f835c</t>
   </si>
   <si>
     <t>AMATURÁ</t>

--- a/backend/storage/app/xlsx/seed_cidades_am.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_am.xlsx
@@ -23,7 +23,7 @@
     <t>ALVARÃENSE</t>
   </si>
   <si>
-    <t>b5e67c91-941c-429a-ad5a-e3d3817f835c</t>
+    <t>4ba8ac08-f40e-450b-96c1-b21b9fd1dd17</t>
   </si>
   <si>
     <t>AMATURÁ</t>
